--- a/AfDD_2024_Annex_Table_Tab23.xlsx
+++ b/AfDD_2024_Annex_Table_Tab23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89607169-AF9E-4822-B729-6C8B90965370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{143CCC74-E0E4-4AB4-954E-536145C98745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9AA4691D-D76D-4CD0-BD89-CC4F2A3F5DF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A168F25A-87F0-4B8B-81DD-8A383677BB07}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140148D4-D6B8-46DB-86AF-9C5A5C586697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BAD0BC-B21B-4BCA-AA16-43C640491848}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11372,12 +11372,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BC135A7A-CAF0-4CF7-AA22-DBC5E081F8CC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{52484DA8-7271-40E4-88ED-E388DE7F7B81}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F5045350-DFEE-4BEE-A653-645A254EA2E9}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{6D315F18-4303-4EDC-A81D-F4D4F77EBF18}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{AEB20A14-0C2D-4A28-B462-61EE1C4254BF}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{ED488A9A-9E30-4EAC-AD9D-B562981B3744}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{733A86BB-C33A-42DA-A13A-073843CD09FF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2D6ADC9C-933F-4ADF-9A11-13CC5812F31D}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BD9117C2-26F5-4677-B9CC-5602AC953FC6}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{92AA8C44-6102-4EB1-B65D-BB5B905AECAC}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{41C9475E-6CD7-41CC-A5CC-C0A068EB5B2A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5453B70E-5805-44DB-B893-52696B2A58E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab23.xlsx
+++ b/AfDD_2024_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{143CCC74-E0E4-4AB4-954E-536145C98745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BCAC5D4-DAD7-42D1-A567-503102BC5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A168F25A-87F0-4B8B-81DD-8A383677BB07}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{90B2C9EB-710D-48EB-9E13-5F2458835576}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -1258,8 +1258,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BAD0BC-B21B-4BCA-AA16-43C640491848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7FFC0-ACF7-4293-B84B-FA8D8D87A6F6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1587,7 +1587,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="31" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="31" width="12.42578125" style="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11239,7 +11239,7 @@
       <c r="AE110" s="97"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="99" t="s">
         <v>193</v>
       </c>
       <c r="C111" s="97"/>
@@ -11273,7 +11273,7 @@
       <c r="AE111" s="97"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="99" t="s">
         <v>190</v>
       </c>
       <c r="C112" s="97"/>
@@ -11372,12 +11372,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{733A86BB-C33A-42DA-A13A-073843CD09FF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2D6ADC9C-933F-4ADF-9A11-13CC5812F31D}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BD9117C2-26F5-4677-B9CC-5602AC953FC6}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{92AA8C44-6102-4EB1-B65D-BB5B905AECAC}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{41C9475E-6CD7-41CC-A5CC-C0A068EB5B2A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5453B70E-5805-44DB-B893-52696B2A58E5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B5DBAA0-74A5-4E55-B3E6-8874E591F1F3}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{76424235-9092-4B94-B595-AC21E4FB23AF}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{822ECF74-1ABE-4EF4-8EDD-98C1C64DE8E8}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{908C3FE5-2768-4F0A-B052-6E204CC8FE87}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{2B492041-EAB9-4487-ACEE-ED153D2CB65D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{855F3071-DB72-4DA1-A4E3-4458AB133FD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab23.xlsx
+++ b/AfDD_2024_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BCAC5D4-DAD7-42D1-A567-503102BC5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB207072-2F01-40A9-BB46-034BB5199D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{90B2C9EB-710D-48EB-9E13-5F2458835576}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F6B72DD1-689F-4271-B8D8-AC2837622DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7FFC0-ACF7-4293-B84B-FA8D8D87A6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879EEC7E-1671-4C28-8D38-201B41C3858A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11372,12 +11372,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B5DBAA0-74A5-4E55-B3E6-8874E591F1F3}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{76424235-9092-4B94-B595-AC21E4FB23AF}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{822ECF74-1ABE-4EF4-8EDD-98C1C64DE8E8}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{908C3FE5-2768-4F0A-B052-6E204CC8FE87}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{2B492041-EAB9-4487-ACEE-ED153D2CB65D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{855F3071-DB72-4DA1-A4E3-4458AB133FD5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5B46B80E-3834-4322-8972-260691009621}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DBCACE63-5138-4EA2-8A8C-070615D7AC66}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{755FFB29-5366-4A4A-A988-13D6E4BEBB22}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F478DA0B-CA9F-4D51-BB2C-F602EA325D45}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{29081193-DCE6-4FA6-85D4-113C89BFF820}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EA91B585-2817-4B91-A66F-120000E38A8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
